--- a/data/trans_orig/CAGE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3864</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9753</v>
+        <v>9134</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003745609665278387</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0009805850037616505</v>
+        <v>0.0009779939093715216</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009452753580077577</v>
+        <v>0.008853244742654243</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>3864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1035</v>
+        <v>1009</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9524</v>
+        <v>9612</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001646656140747449</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0004411262256728557</v>
+        <v>0.0004301099808695774</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004058383949357999</v>
+        <v>0.004095571105530323</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11084</v>
+        <v>10244</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002559472707291249</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01074344790656857</v>
+        <v>0.00992882906138731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9639</v>
+        <v>9631</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001125203058291284</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004107414590910541</v>
+        <v>0.004103862610557871</v>
       </c>
     </row>
     <row r="6">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6839</v>
+        <v>7358</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002059753028629016</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.006628833651414415</v>
+        <v>0.00713162546300257</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11109</v>
+        <v>11942</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002368980147419355</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.00844697924354487</v>
+        <v>0.009080367889477962</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -912,19 +912,19 @@
         <v>5241</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13579</v>
+        <v>12612</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002233036795189697</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006170001713229499</v>
+        <v>0.0006197170419901974</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.00578618082606956</v>
+        <v>0.00537423907111655</v>
       </c>
     </row>
     <row r="7">
@@ -941,19 +941,19 @@
         <v>1023093</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1013712</v>
+        <v>1014931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1027783</v>
+        <v>1027828</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9916351645988013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9825427931480888</v>
+        <v>0.9837238589526099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9961809282640315</v>
+        <v>0.9962243570350309</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1289</v>
@@ -962,7 +962,7 @@
         <v>1311998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1304004</v>
+        <v>1303171</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>1315113</v>
@@ -971,7 +971,7 @@
         <v>0.9976310198525806</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9915530207564551</v>
+        <v>0.9909196321105223</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -983,19 +983,19 @@
         <v>2335089</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2325146</v>
+        <v>2325223</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2340940</v>
+        <v>2341061</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9949951040057716</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9907580155266869</v>
+        <v>0.9907908564047864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9974879078569051</v>
+        <v>0.9975397947377904</v>
       </c>
     </row>
     <row r="8">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6460</v>
+        <v>6049</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001028962953634949</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.003814587706733178</v>
+        <v>0.003572042095221666</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5686</v>
+        <v>5110</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0006409763897142642</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.003581427278792764</v>
+        <v>0.003218753993671053</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1129,19 +1129,19 @@
         <v>2760</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7487</v>
+        <v>7258</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0008412214907443685</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0002371223230791164</v>
+        <v>0.000236890433500554</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002281827485772901</v>
+        <v>0.002212063398781168</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>2730</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7446</v>
+        <v>7984</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001612377295940746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0005167905266085315</v>
+        <v>0.0005141423723661806</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.004396971578377606</v>
+        <v>0.004714633472859236</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4930</v>
+        <v>4938</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0006225319038128679</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.003105017084817053</v>
+        <v>0.003110017050068713</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1200,19 +1200,19 @@
         <v>3719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>883</v>
+        <v>971</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9225</v>
+        <v>9515</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001133404467408524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0002692086629621961</v>
+        <v>0.0002959836940119637</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002811634025156501</v>
+        <v>0.002899904921334647</v>
       </c>
     </row>
     <row r="11">
@@ -1229,19 +1229,19 @@
         <v>9229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4568</v>
+        <v>4130</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17430</v>
+        <v>17177</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0054497746588098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002697794815018093</v>
+        <v>0.002438852991593649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01029283681846064</v>
+        <v>0.01014322181465537</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7704</v>
+        <v>7390</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001334793198755805</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.004852464652252682</v>
+        <v>0.004654313138329033</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1271,19 +1271,19 @@
         <v>11348</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5825</v>
+        <v>5627</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19372</v>
+        <v>20117</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003458590656788315</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001775335420826679</v>
+        <v>0.001714850908449595</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00590421259368161</v>
+        <v>0.006131302694245899</v>
       </c>
     </row>
     <row r="12">
@@ -1300,19 +1300,19 @@
         <v>1679711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1670812</v>
+        <v>1670229</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1685206</v>
+        <v>1685574</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9919088850916145</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9866536412564927</v>
+        <v>0.986309544641604</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9951533149352054</v>
+        <v>0.9953710343559491</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1550</v>
@@ -1321,19 +1321,19 @@
         <v>1583548</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1576662</v>
+        <v>1578286</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1586546</v>
+        <v>1586687</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9974016985077171</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9930648757851241</v>
+        <v>0.994087475681413</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9992899731303552</v>
+        <v>0.9993791437778465</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3185</v>
@@ -1342,19 +1342,19 @@
         <v>3263259</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3253178</v>
+        <v>3252953</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3269994</v>
+        <v>3270072</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9945667833850588</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9914941708555375</v>
+        <v>0.991425670479829</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9966195079389654</v>
+        <v>0.9966431770792281</v>
       </c>
     </row>
     <row r="13">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7366</v>
+        <v>7573</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002659109447676138</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01335827123102775</v>
+        <v>0.01373427509870308</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5071</v>
+        <v>5102</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002136095945834701</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01064398848783593</v>
+        <v>0.01070879412238556</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8501</v>
+        <v>9771</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002416683904208012</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.008270636547459407</v>
+        <v>0.009506642060115483</v>
       </c>
     </row>
     <row r="16">
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7191</v>
+        <v>5640</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003338138822869381</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01304144219399299</v>
+        <v>0.01022858297233658</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5182</v>
+        <v>5132</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002162625220532275</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01087694284252846</v>
+        <v>0.01077233921329591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1606,19 +1606,19 @@
         <v>2871</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7541</v>
+        <v>8498</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00279326852239453</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.000824683768568942</v>
+        <v>0.0008226559113167916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007336927537889671</v>
+        <v>0.008268060775594718</v>
       </c>
     </row>
     <row r="17">
@@ -1635,19 +1635,19 @@
         <v>548101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>541601</v>
+        <v>540925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>550545</v>
+        <v>550559</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9940027517294545</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9822154174404399</v>
+        <v>0.9809883705836775</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9984344086466415</v>
+        <v>0.998460810968669</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>450</v>
@@ -1656,7 +1656,7 @@
         <v>474364</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>468880</v>
+        <v>469267</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>476412</v>
@@ -1665,7 +1665,7 @@
         <v>0.995701278833633</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9841891352229263</v>
+        <v>0.9850021161805363</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1677,19 +1677,19 @@
         <v>1022465</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1015812</v>
+        <v>1015004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1025821</v>
+        <v>1025842</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9947900475733975</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.988316625193052</v>
+        <v>0.9875308141932958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9980548418911706</v>
+        <v>0.9980759062554451</v>
       </c>
     </row>
     <row r="18">
@@ -1781,19 +1781,19 @@
         <v>5607</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12258</v>
+        <v>11785</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001711221020857152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0007677878445496275</v>
+        <v>0.0007691671949316924</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.003741180808253826</v>
+        <v>0.003596642499711688</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5110</v>
+        <v>5558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0003011546389197376</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.001512321003551215</v>
+        <v>0.001644665354323607</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1823,19 +1823,19 @@
         <v>6625</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2893</v>
+        <v>2882</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13469</v>
+        <v>13411</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.000995313838218762</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0004346647997306016</v>
+        <v>0.0004330596159683517</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002023702441272536</v>
+        <v>0.002014935057598716</v>
       </c>
     </row>
     <row r="20">
@@ -1852,19 +1852,19 @@
         <v>6837</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2663</v>
+        <v>2353</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14164</v>
+        <v>14552</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002086754165561299</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0008128479374787167</v>
+        <v>0.0007182079906879675</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004322868209004088</v>
+        <v>0.004441316367597334</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7027</v>
+        <v>7003</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0005936433697329825</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.002079455417497298</v>
+        <v>0.002072526794552836</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1894,19 +1894,19 @@
         <v>8843</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4224</v>
+        <v>3840</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17253</v>
+        <v>17796</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001328684363386653</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0006346029744560339</v>
+        <v>0.0005770171391868826</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.002592202561469821</v>
+        <v>0.002673775610229689</v>
       </c>
     </row>
     <row r="21">
@@ -1923,19 +1923,19 @@
         <v>13194</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7554</v>
+        <v>7181</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22219</v>
+        <v>22249</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00402695341232436</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002305470451890319</v>
+        <v>0.002191778010347999</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.006781217949503548</v>
+        <v>0.006790479631766741</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1944,19 +1944,19 @@
         <v>6265</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14055</v>
+        <v>14254</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.001853987833040277</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0006282232769482915</v>
+        <v>0.0006286506120124565</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.004159190462143992</v>
+        <v>0.004218233129632353</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -1965,19 +1965,19 @@
         <v>19459</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12138</v>
+        <v>11845</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31176</v>
+        <v>30188</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002923713390604226</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001823644257568388</v>
+        <v>0.001779630587786393</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.004684116185186301</v>
+        <v>0.00453562629275265</v>
       </c>
     </row>
     <row r="22">
@@ -1994,19 +1994,19 @@
         <v>3250904</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3239163</v>
+        <v>3238415</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3259495</v>
+        <v>3259344</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9921750714012572</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9885914861191086</v>
+        <v>0.98836337256531</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9947970049143814</v>
+        <v>0.9947507479870181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3289</v>
@@ -2015,19 +2015,19 @@
         <v>3369908</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3361512</v>
+        <v>3361046</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3374960</v>
+        <v>3374833</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.997251214158307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9947665481613661</v>
+        <v>0.9946286853748501</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9987461029428844</v>
+        <v>0.9987087130014859</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6478</v>
@@ -2036,19 +2036,19 @@
         <v>6620814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6606820</v>
+        <v>6608279</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6630951</v>
+        <v>6630915</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9947522884077904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9926497576401071</v>
+        <v>0.9928690643825095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9962754106312522</v>
+        <v>0.9962699537670728</v>
       </c>
     </row>
     <row r="23">
@@ -2379,19 +2379,19 @@
         <v>2810</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8282</v>
+        <v>7762</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002883256252985595</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0007455564606561995</v>
+        <v>0.0007437445217831689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008497758463300462</v>
+        <v>0.007963739190963834</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2413,19 +2413,19 @@
         <v>2810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7427</v>
+        <v>7706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001215229840754088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0003138139759675728</v>
+        <v>0.0003143761615198402</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0032117252166108</v>
+        <v>0.003332550089279217</v>
       </c>
     </row>
     <row r="5">
@@ -2442,19 +2442,19 @@
         <v>5502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17213</v>
+        <v>16620</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005644829453950714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001008089157230723</v>
+        <v>0.001003987720799899</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01766052017016482</v>
+        <v>0.01705228319497517</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>5502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16875</v>
+        <v>16328</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002379172919959945</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0004264874355475517</v>
+        <v>0.0004271118582663111</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.00729733821958645</v>
+        <v>0.00706079974460304</v>
       </c>
     </row>
     <row r="6">
@@ -2505,19 +2505,19 @@
         <v>9627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4644</v>
+        <v>4591</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17377</v>
+        <v>17479</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00987747972798683</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004764373807116259</v>
+        <v>0.004709976893879107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0178291857445582</v>
+        <v>0.01793348685209291</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2539,19 +2539,19 @@
         <v>9627</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4630</v>
+        <v>4667</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18444</v>
+        <v>18338</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004163143010429165</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002002052832749044</v>
+        <v>0.002018301771874802</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.007976199995573639</v>
+        <v>0.007930242640810973</v>
       </c>
     </row>
     <row r="7">
@@ -2568,19 +2568,19 @@
         <v>956704</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>945229</v>
+        <v>946163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>964508</v>
+        <v>964348</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9815944345650769</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.969820407078643</v>
+        <v>0.9707791574406721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9896015061860099</v>
+        <v>0.9894373649502263</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1247</v>
@@ -2602,19 +2602,19 @@
         <v>2294501</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2281992</v>
+        <v>2282119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2302460</v>
+        <v>2302026</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9922424542288568</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9868328374782673</v>
+        <v>0.9868877999438905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9956843315056976</v>
+        <v>0.9954964072581359</v>
       </c>
     </row>
     <row r="8">
@@ -2706,19 +2706,19 @@
         <v>6072</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2653</v>
+        <v>1824</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12565</v>
+        <v>12587</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003091641871422652</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001350942576884138</v>
+        <v>0.0009286863796604698</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006397933582593424</v>
+        <v>0.006408957876259722</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -2740,19 +2740,19 @@
         <v>6072</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2460</v>
+        <v>2153</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12672</v>
+        <v>13110</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001631446639181457</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0006608639042825667</v>
+        <v>0.0005784630494932312</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003404877114607107</v>
+        <v>0.003522521379005733</v>
       </c>
     </row>
     <row r="10">
@@ -2769,19 +2769,19 @@
         <v>11835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6264</v>
+        <v>6909</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19552</v>
+        <v>19649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006026103958084899</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003189728051866832</v>
+        <v>0.003518126774824802</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009955463661132927</v>
+        <v>0.01000476942407675</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5850</v>
+        <v>5497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0005698132346785941</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.003327853898881342</v>
+        <v>0.003127143830664507</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -2811,19 +2811,19 @@
         <v>12837</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7363</v>
+        <v>7369</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21227</v>
+        <v>21148</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003449075301019411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001978428011447019</v>
+        <v>0.001979856111205919</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005703514317980243</v>
+        <v>0.005682197392376612</v>
       </c>
     </row>
     <row r="11">
@@ -2840,19 +2840,19 @@
         <v>23946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15274</v>
+        <v>15304</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37279</v>
+        <v>35205</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01219296904292002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007776989449449218</v>
+        <v>0.007792226082187821</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01898155139305861</v>
+        <v>0.01792568078008314</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -2861,19 +2861,19 @@
         <v>4123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10571</v>
+        <v>9438</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002345287580384959</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0005761517684899089</v>
+        <v>0.0005694768617636576</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.00601371407281421</v>
+        <v>0.005369211489547982</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -2882,19 +2882,19 @@
         <v>28069</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18878</v>
+        <v>18873</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40712</v>
+        <v>40902</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00754186839211702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005072267887684117</v>
+        <v>0.005071106158181888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01093902585885969</v>
+        <v>0.01098995337899956</v>
       </c>
     </row>
     <row r="12">
@@ -2911,19 +2911,19 @@
         <v>1922104</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1906329</v>
+        <v>1906447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1933057</v>
+        <v>1933228</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9786892851275725</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9706571168371911</v>
+        <v>0.9707170514815703</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9842662313656322</v>
+        <v>0.9843533576594651</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1630</v>
@@ -2932,19 +2932,19 @@
         <v>1752679</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1745628</v>
+        <v>1746492</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1755795</v>
+        <v>1755825</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9970848991849365</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.993073568829026</v>
+        <v>0.993565439264783</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9988575500951007</v>
+        <v>0.9988749649181603</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3444</v>
@@ -2953,19 +2953,19 @@
         <v>3674782</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3661112</v>
+        <v>3660278</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3687526</v>
+        <v>3686104</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9873776096676821</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9837044770321333</v>
+        <v>0.983480290311507</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.990801778102225</v>
+        <v>0.9904196975704908</v>
       </c>
     </row>
     <row r="13">
@@ -3104,19 +3104,19 @@
         <v>3847</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>852</v>
+        <v>1118</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11912</v>
+        <v>12357</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007995445119053075</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001770516277020755</v>
+        <v>0.002323838670491987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02475508720395798</v>
+        <v>0.02568074535998993</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3141,16 +3141,16 @@
         <v>853</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12160</v>
+        <v>11809</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004093645991735223</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0009075304093251622</v>
+        <v>0.0009078127705390378</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0129390260838552</v>
+        <v>0.01256542208005671</v>
       </c>
     </row>
     <row r="16">
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11123</v>
+        <v>12850</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004543619703556569</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02311502321718466</v>
+        <v>0.02670576184250605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12188</v>
+        <v>13148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002326320837736722</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0129683278555576</v>
+        <v>0.0139901828295683</v>
       </c>
     </row>
     <row r="17">
@@ -3230,19 +3230,19 @@
         <v>475147</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>465991</v>
+        <v>464471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>480028</v>
+        <v>479272</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9874609351773903</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9684323301773073</v>
+        <v>0.965272376135128</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9976037288403846</v>
+        <v>0.9960322008902781</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>412</v>
@@ -3264,19 +3264,19 @@
         <v>933779</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>924198</v>
+        <v>924614</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>937853</v>
+        <v>937949</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.993580033170528</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9833845762267748</v>
+        <v>0.9838277643567741</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979140464870812</v>
+        <v>0.9980164955295405</v>
       </c>
     </row>
     <row r="18">
@@ -3368,19 +3368,19 @@
         <v>8882</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4420</v>
+        <v>4051</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17400</v>
+        <v>15935</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002597241252606815</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001292563106260646</v>
+        <v>0.001184492992546503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.005087986212870236</v>
+        <v>0.004659688242253179</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3402,19 +3402,19 @@
         <v>8882</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4371</v>
+        <v>3955</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16287</v>
+        <v>15974</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001273585178595571</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.000626766235010214</v>
+        <v>0.0005671228700780792</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002335361530747283</v>
+        <v>0.002290442602665746</v>
       </c>
     </row>
     <row r="20">
@@ -3431,19 +3431,19 @@
         <v>21184</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12796</v>
+        <v>12665</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35395</v>
+        <v>33397</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006194536888437746</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003741872448302127</v>
+        <v>0.003703558706747195</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01035001040661708</v>
+        <v>0.009765860941793221</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5353</v>
+        <v>5493</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.000281810444564603</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.001506111100744645</v>
+        <v>0.001545510713671275</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -3473,19 +3473,19 @@
         <v>22186</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14130</v>
+        <v>14026</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34834</v>
+        <v>34892</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003181179440975242</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002026024882009499</v>
+        <v>0.00201121004840453</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004994895441113477</v>
+        <v>0.005003096195616475</v>
       </c>
     </row>
     <row r="21">
@@ -3502,19 +3502,19 @@
         <v>35760</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24506</v>
+        <v>25353</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50902</v>
+        <v>51280</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01045674707362305</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007165879590106177</v>
+        <v>0.007413526995421265</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0148844838787357</v>
+        <v>0.01499497706500869</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -3523,19 +3523,19 @@
         <v>4123</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10614</v>
+        <v>10373</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.001159900289141101</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0003163817259224775</v>
+        <v>0.0003157440786136902</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.002986422310378373</v>
+        <v>0.00291840188462458</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -3544,19 +3544,19 @@
         <v>39882</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>28474</v>
+        <v>26618</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>54002</v>
+        <v>55839</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00571870908693997</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004082861533604661</v>
+        <v>0.003816789431242865</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.007743323471744974</v>
+        <v>0.008006718769878093</v>
       </c>
     </row>
     <row r="22">
@@ -3573,19 +3573,19 @@
         <v>3353956</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3333080</v>
+        <v>3332719</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3369411</v>
+        <v>3369578</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9807514747853324</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9746469808464874</v>
+        <v>0.974541256133038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9852705884156032</v>
+        <v>0.9853195249550331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3289</v>
@@ -3594,19 +3594,19 @@
         <v>3549106</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3541469</v>
+        <v>3542063</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3552229</v>
+        <v>3552230</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9985582892662943</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9964096183531145</v>
+        <v>0.9965768267002981</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9994370739389266</v>
+        <v>0.9994372137754047</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6430</v>
@@ -3615,19 +3615,19 @@
         <v>6903062</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6884806</v>
+        <v>6884357</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6919288</v>
+        <v>6919254</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9898265262934892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9872088526817093</v>
+        <v>0.9871444507011327</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.992153211426771</v>
+        <v>0.9921482207393784</v>
       </c>
     </row>
     <row r="23">
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5478</v>
+        <v>6446</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001451774280388263</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0072620083148629</v>
+        <v>0.008545420544072207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6245</v>
+        <v>5946</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001109884124287161</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006278394788451372</v>
+        <v>0.005977774901149095</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7722</v>
+        <v>6767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001257341364256413</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004415296837209401</v>
+        <v>0.003868837645668812</v>
       </c>
     </row>
     <row r="5">
@@ -4029,19 +4029,19 @@
         <v>4003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10365</v>
+        <v>9502</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005306937784461297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001343018032793914</v>
+        <v>0.001306720170618825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01374005695035189</v>
+        <v>0.01259668213548705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4063,19 +4063,19 @@
         <v>4003</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11094</v>
+        <v>9257</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002288882509251856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0005791333927902043</v>
+        <v>0.0005758248548565439</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006343214225689127</v>
+        <v>0.005292441924982508</v>
       </c>
     </row>
     <row r="6">
@@ -4092,19 +4092,19 @@
         <v>11309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5860</v>
+        <v>5209</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20991</v>
+        <v>20913</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01499217340842037</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007767803716814329</v>
+        <v>0.006905133015942831</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02782734820942652</v>
+        <v>0.0277234216933554</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4126,19 +4126,19 @@
         <v>11309</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5378</v>
+        <v>5096</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20481</v>
+        <v>20676</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006466125077003798</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00307495191497302</v>
+        <v>0.002913770444336922</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01171030836034152</v>
+        <v>0.01182136214269463</v>
       </c>
     </row>
     <row r="7">
@@ -4155,19 +4155,19 @@
         <v>737939</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>726439</v>
+        <v>727464</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>745061</v>
+        <v>745481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.97824911452673</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.963004120770793</v>
+        <v>0.9643623079592667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9876901976684079</v>
+        <v>0.9882464933537176</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>891</v>
@@ -4176,7 +4176,7 @@
         <v>993556</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>988415</v>
+        <v>988714</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>994660</v>
@@ -4185,7 +4185,7 @@
         <v>0.9988901158757129</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9937216052115476</v>
+        <v>0.9940222250988504</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -4197,19 +4197,19 @@
         <v>1731495</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1721738</v>
+        <v>1720282</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1739152</v>
+        <v>1739215</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9899876510494879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9844090296352548</v>
+        <v>0.9835764649502018</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9943655683617667</v>
+        <v>0.9944011696071305</v>
       </c>
     </row>
     <row r="8">
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5246</v>
+        <v>5276</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0005048286860911583</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.002526422551358861</v>
+        <v>0.002540887648357641</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5240</v>
+        <v>4713</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0002578843590920951</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.001289242404439714</v>
+        <v>0.001159465281856676</v>
       </c>
     </row>
     <row r="10">
@@ -4364,19 +4364,19 @@
         <v>8858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3728</v>
+        <v>4265</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17358</v>
+        <v>16793</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004265954213389097</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001795364064859836</v>
+        <v>0.002053816763352154</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008359720239141909</v>
+        <v>0.008087494299254757</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5270</v>
+        <v>5448</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0004733584863978966</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.002650574305103546</v>
+        <v>0.002740089131320803</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -4406,19 +4406,19 @@
         <v>9799</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4924</v>
+        <v>4619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17126</v>
+        <v>18328</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002410750606333677</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001211513555031322</v>
+        <v>0.001136298253650617</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004213305890810737</v>
+        <v>0.004508991981200717</v>
       </c>
     </row>
     <row r="11">
@@ -4435,19 +4435,19 @@
         <v>18547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11092</v>
+        <v>11374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28857</v>
+        <v>29189</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00893230582684342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005341788420736671</v>
+        <v>0.005477828403543964</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01389785050134441</v>
+        <v>0.01405743764956726</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -4456,19 +4456,19 @@
         <v>8104</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3801</v>
+        <v>3652</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15080</v>
+        <v>15397</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004075857009203868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001911798748454317</v>
+        <v>0.001836782305516447</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.00758448985310237</v>
+        <v>0.007743704075506268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -4477,19 +4477,19 @@
         <v>26651</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17975</v>
+        <v>17703</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38966</v>
+        <v>39406</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00655670293834029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004422251721845842</v>
+        <v>0.00435534849885581</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009586387337744893</v>
+        <v>0.009694608081051419</v>
       </c>
     </row>
     <row r="12">
@@ -4506,19 +4506,19 @@
         <v>2047932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2034944</v>
+        <v>2033947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2057874</v>
+        <v>2057351</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9862969112736764</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9800415550512827</v>
+        <v>0.9795617246669217</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9910851255725325</v>
+        <v>0.9908331109562208</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1899</v>
@@ -4527,19 +4527,19 @@
         <v>1979255</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1971968</v>
+        <v>1971037</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1984036</v>
+        <v>1983623</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9954507845043983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9917858496606241</v>
+        <v>0.9913174730266298</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9978555855268355</v>
+        <v>0.9976478037009352</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3825</v>
@@ -4548,19 +4548,19 @@
         <v>4027187</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4013525</v>
+        <v>4012778</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4037354</v>
+        <v>4037877</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9907746620962339</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9874135251020167</v>
+        <v>0.9872298217324477</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9932758834627341</v>
+        <v>0.9934047729391854</v>
       </c>
     </row>
     <row r="13">
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4100</v>
+        <v>4606</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001679497450956941</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007466344954360458</v>
+        <v>0.008387313376596891</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4079</v>
+        <v>3732</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0008414757948193297</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003721871646308352</v>
+        <v>0.003405124126922029</v>
       </c>
     </row>
     <row r="15">
@@ -4762,19 +4762,19 @@
         <v>3920</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>956</v>
+        <v>999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11784</v>
+        <v>14218</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007167031817320004</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0017486454848811</v>
+        <v>0.001826370925091958</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02154715844115757</v>
+        <v>0.02599729677140326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -4783,19 +4783,19 @@
         <v>5817</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1906</v>
+        <v>1927</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13146</v>
+        <v>14180</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01059212868287813</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003470556513803528</v>
+        <v>0.003509284512286119</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02393973806809988</v>
+        <v>0.02582214278805231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -4804,19 +4804,19 @@
         <v>9736</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4844</v>
+        <v>4865</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19821</v>
+        <v>19845</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008883102363087453</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004419965613623351</v>
+        <v>0.004438659795230407</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01808414071520714</v>
+        <v>0.01810664454638905</v>
       </c>
     </row>
     <row r="17">
@@ -4833,19 +4833,19 @@
         <v>542966</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>535102</v>
+        <v>532668</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>545930</v>
+        <v>545887</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.99283296818268</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9784528415588416</v>
+        <v>0.9740027032285965</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9982513545151189</v>
+        <v>0.9981736290749079</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>520</v>
@@ -4854,19 +4854,19 @@
         <v>542401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>535307</v>
+        <v>534115</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>547121</v>
+        <v>546341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.987728373866165</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9748096033233099</v>
+        <v>0.972638577094749</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9963225740915899</v>
+        <v>0.994902551748986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1018</v>
@@ -4875,19 +4875,19 @@
         <v>1085369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1075344</v>
+        <v>1075769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1090368</v>
+        <v>1090450</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9902754218420933</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9811291363599721</v>
+        <v>0.9815168135877311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9948371020756438</v>
+        <v>0.9949116775173706</v>
       </c>
     </row>
     <row r="18">
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6525</v>
+        <v>7499</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00063457737789104</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.001931834084309532</v>
+        <v>0.002220329227441325</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7177</v>
+        <v>6854</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0005736635709007734</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.002032065567515401</v>
+        <v>0.001940575558512591</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -5021,19 +5021,19 @@
         <v>4170</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10771</v>
+        <v>9720</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0006034395402894522</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0001587675896402489</v>
+        <v>0.0001583343596174052</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.001558830323937199</v>
+        <v>0.001406731388008794</v>
       </c>
     </row>
     <row r="20">
@@ -5050,19 +5050,19 @@
         <v>12861</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7101</v>
+        <v>6826</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21821</v>
+        <v>22157</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003807723271454965</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002102225893280243</v>
+        <v>0.002021064820399723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.006460583883361958</v>
+        <v>0.006559873782828385</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4699</v>
+        <v>5652</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0002664642920381567</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.001330438714079133</v>
+        <v>0.001600160123523923</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -5092,19 +5092,19 @@
         <v>13802</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7442</v>
+        <v>7802</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22467</v>
+        <v>22707</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001997507288338615</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001077032920067155</v>
+        <v>0.001129170744912221</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003251563428237904</v>
+        <v>0.003286237650897125</v>
       </c>
     </row>
     <row r="21">
@@ -5121,19 +5121,19 @@
         <v>33776</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23232</v>
+        <v>22984</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48044</v>
+        <v>45687</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0099998740570205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006878126332498019</v>
+        <v>0.006804844446231069</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.014224135960486</v>
+        <v>0.0135265425112766</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -5142,19 +5142,19 @@
         <v>13921</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7740</v>
+        <v>7328</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22694</v>
+        <v>24108</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003941165267363395</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002191274153542352</v>
+        <v>0.002074657310626379</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.006425187784621005</v>
+        <v>0.006825447021655885</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>43</v>
@@ -5163,19 +5163,19 @@
         <v>47696</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34371</v>
+        <v>35625</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>64129</v>
+        <v>64779</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006902791479374342</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004974240241054629</v>
+        <v>0.005155743079341626</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.009280915047944292</v>
+        <v>0.009375059942380122</v>
       </c>
     </row>
     <row r="22">
@@ -5192,19 +5192,19 @@
         <v>3328838</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3311815</v>
+        <v>3312306</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3341456</v>
+        <v>3341883</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9855578252936334</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9805179030054368</v>
+        <v>0.9806631520314489</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9892937109228254</v>
+        <v>0.9894199896721426</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3310</v>
@@ -5213,19 +5213,19 @@
         <v>3515212</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3505974</v>
+        <v>3504873</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3522812</v>
+        <v>3522302</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9952187068696977</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9926032267526855</v>
+        <v>0.9922914236872478</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9973703650228394</v>
+        <v>0.9972259622571732</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6481</v>
@@ -5234,19 +5234,19 @@
         <v>6844050</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6825142</v>
+        <v>6826500</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6859901</v>
+        <v>6859628</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9904962616919976</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9877599058137234</v>
+        <v>0.9879563997034694</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9927902668152385</v>
+        <v>0.9927508498337899</v>
       </c>
     </row>
     <row r="23">
@@ -5577,19 +5577,19 @@
         <v>6402</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2890</v>
+        <v>2860</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12532</v>
+        <v>11794</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02484170326220011</v>
+        <v>0.02484170326220012</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01121509752128823</v>
+        <v>0.01109673050860245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04862333546115388</v>
+        <v>0.04576000153024286</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01185005586813159</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -5619,19 +5619,19 @@
         <v>7290</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3609</v>
+        <v>3515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13094</v>
+        <v>12768</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0219152704710841</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01084890915077617</v>
+        <v>0.01056603135309132</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03936107972806489</v>
+        <v>0.0383807820094003</v>
       </c>
     </row>
     <row r="5">
@@ -5648,19 +5648,19 @@
         <v>2964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8028</v>
+        <v>7300</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01149969153026497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002319310843616091</v>
+        <v>0.002376000063788212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03114927550482118</v>
+        <v>0.02832640981125544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -5682,19 +5682,19 @@
         <v>2964</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7516</v>
+        <v>7506</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.008909329171966121</v>
+        <v>0.008909329171966119</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00262558620137709</v>
+        <v>0.002637051257868958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02259235806986048</v>
+        <v>0.02256292030772987</v>
       </c>
     </row>
     <row r="6">
@@ -5711,19 +5711,19 @@
         <v>5599</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1765</v>
+        <v>1645</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13821</v>
+        <v>13619</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02172553672698022</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006849479956521146</v>
+        <v>0.006382995194173357</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05362635090549851</v>
+        <v>0.05284339142685903</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -5745,19 +5745,19 @@
         <v>5599</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13890</v>
+        <v>13303</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.01683175219343004</v>
+        <v>0.01683175219343003</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005231462536256339</v>
+        <v>0.005221626807385442</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04175400234090866</v>
+        <v>0.03999066504385537</v>
       </c>
     </row>
     <row r="7">
@@ -5774,19 +5774,19 @@
         <v>242762</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>233952</v>
+        <v>234163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>248961</v>
+        <v>249217</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9419330684805547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9077529688372983</v>
+        <v>0.9085713466531633</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9659859296468468</v>
+        <v>0.9669786359426521</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -5795,16 +5795,16 @@
         <v>74045</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71886</v>
+        <v>71414</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>74933</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9881499441318685</v>
+        <v>0.9881499441318683</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9593354153570246</v>
+        <v>0.9530336065231636</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -5816,19 +5816,19 @@
         <v>316808</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>307287</v>
+        <v>307112</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>323097</v>
+        <v>322932</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9523436481635198</v>
+        <v>0.9523436481635197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9237249757263281</v>
+        <v>0.9231984242995386</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9712490433919925</v>
+        <v>0.9707536364556489</v>
       </c>
     </row>
     <row r="8">
@@ -5920,19 +5920,19 @@
         <v>3790</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1152</v>
+        <v>1324</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8494</v>
+        <v>8917</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.00364161242604302</v>
+        <v>0.003641612426043021</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001106896532890713</v>
+        <v>0.001272509499189406</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.008162171094022844</v>
+        <v>0.008569025172583129</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -5941,19 +5941,19 @@
         <v>10182</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4586</v>
+        <v>4119</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20004</v>
+        <v>21231</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01838354184691731</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008279659309402268</v>
+        <v>0.007435949363710205</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03611704502614414</v>
+        <v>0.03833209691023165</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -5962,19 +5962,19 @@
         <v>13972</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7649</v>
+        <v>8256</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26506</v>
+        <v>24173</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.008762365462926164</v>
+        <v>0.008762365462926162</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004796819996504457</v>
+        <v>0.005177638231143597</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01662296913776111</v>
+        <v>0.01515989226993858</v>
       </c>
     </row>
     <row r="10">
@@ -5991,19 +5991,19 @@
         <v>4357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1245</v>
+        <v>1157</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10612</v>
+        <v>11299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004187143270355354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001196628861730433</v>
+        <v>0.001111461523710549</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01019775470838551</v>
+        <v>0.01085755825447889</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3933</v>
+        <v>4033</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001279621792682722</v>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007101340311912477</v>
+        <v>0.007281170761441801</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -6033,19 +6033,19 @@
         <v>5066</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1557</v>
+        <v>1846</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11841</v>
+        <v>11650</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003177187313334356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.000976358239154315</v>
+        <v>0.001157571707404544</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007426093667232517</v>
+        <v>0.007306547761333389</v>
       </c>
     </row>
     <row r="11">
@@ -6062,19 +6062,19 @@
         <v>7139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2348</v>
+        <v>2366</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16654</v>
+        <v>16371</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.006860430485410781</v>
+        <v>0.00686043048541078</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002256079062855696</v>
+        <v>0.002273992486900322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01600376499712936</v>
+        <v>0.01573184107016709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3321</v>
+        <v>4114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001244166811517454</v>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.005995512454150816</v>
+        <v>0.007428567217230356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -6104,19 +6104,19 @@
         <v>7828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3136</v>
+        <v>3303</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19278</v>
+        <v>18363</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004909566494480066</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001966876430641854</v>
+        <v>0.002071625372421215</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01209019196203458</v>
+        <v>0.01151639573716016</v>
       </c>
     </row>
     <row r="12">
@@ -6133,19 +6133,19 @@
         <v>1025361</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1013765</v>
+        <v>1013842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1032172</v>
+        <v>1031914</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.985310813818191</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9741681108239935</v>
+        <v>0.9742419008400623</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9918558205878507</v>
+        <v>0.9916079880829107</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>702</v>
@@ -6154,19 +6154,19 @@
         <v>542291</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>532738</v>
+        <v>530767</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>548423</v>
+        <v>548272</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9790926695488823</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.961844440537645</v>
+        <v>0.9582860571389771</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.990163129479203</v>
+        <v>0.9898909655373879</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1601</v>
@@ -6175,19 +6175,19 @@
         <v>1567652</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1551375</v>
+        <v>1553891</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1577006</v>
+        <v>1576800</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9831508807292594</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9729428505030597</v>
+        <v>0.9745208249219408</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9890173425503215</v>
+        <v>0.9888882475867775</v>
       </c>
     </row>
     <row r="13">
@@ -6279,19 +6279,19 @@
         <v>2498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7178</v>
+        <v>6834</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.006811567060610021</v>
+        <v>0.006811567060610023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001923576644172725</v>
+        <v>0.001882763825949559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01957558843399706</v>
+        <v>0.01863608283964583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2619</v>
+        <v>3337</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00206807296439425</v>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009886596696654095</v>
+        <v>0.01259681521706922</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -6321,19 +6321,19 @@
         <v>3046</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7078</v>
+        <v>7143</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.004822215352943178</v>
+        <v>0.004822215352943179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001164466354359086</v>
+        <v>0.001115802536723834</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01120696007594516</v>
+        <v>0.01130972373118973</v>
       </c>
     </row>
     <row r="15">
@@ -6350,19 +6350,19 @@
         <v>4073</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>946</v>
+        <v>1115</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10041</v>
+        <v>10127</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01110730662082847</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00258071493999867</v>
+        <v>0.003040404278268411</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02738312588886638</v>
+        <v>0.0276173718741514</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -6371,19 +6371,19 @@
         <v>2231</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6146</v>
+        <v>5527</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.0084238032393336</v>
+        <v>0.008423803239333602</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.002666157535535491</v>
+        <v>0.002659391095986409</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02320470157325359</v>
+        <v>0.02086756316698901</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -6392,19 +6392,19 @@
         <v>6304</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2540</v>
+        <v>2597</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12639</v>
+        <v>12507</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.009981884742731179</v>
+        <v>0.00998188474273118</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004021567201816826</v>
+        <v>0.004112759981460508</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02001291594551742</v>
+        <v>0.01980267932197183</v>
       </c>
     </row>
     <row r="16">
@@ -6421,19 +6421,19 @@
         <v>4389</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1459</v>
+        <v>1595</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9749</v>
+        <v>10255</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01196892564948463</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003978212418893951</v>
+        <v>0.004348337635528048</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02658551100753149</v>
+        <v>0.02796630139353042</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -6445,16 +6445,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4923</v>
+        <v>4843</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.005284915473741224</v>
+        <v>0.005284915473741225</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01858474797713882</v>
+        <v>0.01828420636539015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6463,19 +6463,19 @@
         <v>5789</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2589</v>
+        <v>2093</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12773</v>
+        <v>11608</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009165750018300526</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004098990276478239</v>
+        <v>0.003314003586518008</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02022493762332644</v>
+        <v>0.0183801777377294</v>
       </c>
     </row>
     <row r="17">
@@ -6492,19 +6492,19 @@
         <v>355736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>348302</v>
+        <v>347343</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>360799</v>
+        <v>361023</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9701122006690768</v>
+        <v>0.9701122006690769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.949837430759405</v>
+        <v>0.9472243687170179</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9839192729942557</v>
+        <v>0.9845306090722833</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>347</v>
@@ -6513,19 +6513,19 @@
         <v>260690</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>256443</v>
+        <v>256008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>263356</v>
+        <v>263090</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9842232083225307</v>
+        <v>0.9842232083225311</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.968187437891219</v>
+        <v>0.9665458806146816</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9942858610795706</v>
+        <v>0.9932820393872379</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>681</v>
@@ -6534,19 +6534,19 @@
         <v>616426</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>607920</v>
+        <v>607908</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>622167</v>
+        <v>622148</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9760301498860251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9625627795601798</v>
+        <v>0.9625432778743324</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9851210996962161</v>
+        <v>0.9850911473379861</v>
       </c>
     </row>
     <row r="18">
@@ -6638,19 +6638,19 @@
         <v>12690</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7765</v>
+        <v>7631</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20562</v>
+        <v>20169</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007621174421140407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004663605558964261</v>
+        <v>0.004582717715145467</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01234920412498876</v>
+        <v>0.01211323840948198</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6659,19 +6659,19 @@
         <v>11618</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5347</v>
+        <v>5592</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22710</v>
+        <v>22054</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01300010584318727</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00598277229136011</v>
+        <v>0.006257231374369478</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02541202677276895</v>
+        <v>0.02467751208242513</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -6680,19 +6680,19 @@
         <v>24308</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16184</v>
+        <v>16376</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36670</v>
+        <v>37555</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.009499834881280797</v>
+        <v>0.009499834881280799</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006324853774100206</v>
+        <v>0.006400150782364827</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01433128597795908</v>
+        <v>0.01467731050263085</v>
       </c>
     </row>
     <row r="20">
@@ -6709,19 +6709,19 @@
         <v>11394</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6300</v>
+        <v>6070</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20585</v>
+        <v>19290</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006843029594163309</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003783406312500221</v>
+        <v>0.003645450201189998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01236288161950586</v>
+        <v>0.01158519877817995</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6730,19 +6730,19 @@
         <v>2940</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>799</v>
+        <v>723</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7630</v>
+        <v>7329</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003289733839047721</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0008938132826843497</v>
+        <v>0.0008094664563183235</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008538339690110416</v>
+        <v>0.008200973437998648</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -6751,19 +6751,19 @@
         <v>14334</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8490</v>
+        <v>8136</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22721</v>
+        <v>23153</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.005601995694575103</v>
+        <v>0.005601995694575104</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00331786844580243</v>
+        <v>0.003179802236395748</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008879686843927049</v>
+        <v>0.009048422192201269</v>
       </c>
     </row>
     <row r="21">
@@ -6780,19 +6780,19 @@
         <v>17127</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10481</v>
+        <v>9913</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28355</v>
+        <v>28781</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01028635590790822</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006294817613521925</v>
+        <v>0.005953430122226114</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01702913188604493</v>
+        <v>0.01728518720231977</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -6801,19 +6801,19 @@
         <v>2089</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5680</v>
+        <v>5633</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002337450110064362</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0007080072503055609</v>
+        <v>0.0007209885008509924</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.006356023423303652</v>
+        <v>0.006303620617365395</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -6822,19 +6822,19 @@
         <v>19216</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11741</v>
+        <v>11610</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32919</v>
+        <v>30827</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.007510099091808613</v>
+        <v>0.007510099091808614</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004588471133076402</v>
+        <v>0.004537440166857862</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0128652969816096</v>
+        <v>0.01204775752740975</v>
       </c>
     </row>
     <row r="22">
@@ -6851,19 +6851,19 @@
         <v>1623858</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1608980</v>
+        <v>1609075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1635187</v>
+        <v>1634541</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.975249440076788</v>
+        <v>0.9752494400767883</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9663143201816493</v>
+        <v>0.9663711546682197</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.98205356625429</v>
+        <v>0.9816657032357088</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1170</v>
@@ -6872,19 +6872,19 @@
         <v>877027</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>865376</v>
+        <v>865953</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>883724</v>
+        <v>883696</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9813727102077006</v>
+        <v>0.9813727102077007</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9683347586122406</v>
+        <v>0.9689813056966728</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9888666179919829</v>
+        <v>0.9888351405429042</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2700</v>
@@ -6893,19 +6893,19 @@
         <v>2500885</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2483432</v>
+        <v>2481728</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2513891</v>
+        <v>2515213</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9773880703323354</v>
+        <v>0.9773880703323357</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9705672047099388</v>
+        <v>0.9699012426233452</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9824710468089995</v>
+        <v>0.9829876512253496</v>
       </c>
     </row>
     <row r="23">
